--- a/data/trans_dic/P25C$otraforma_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25C$otraforma_2023-Edad-trans_dic.xlsx
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.02042780303190321</v>
+        <v>0.02042780303190322</v>
       </c>
     </row>
     <row r="8">
@@ -639,11 +639,11 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2363797680705193</v>
+        <v>0.2611591994941471</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.1064959416129705</v>
+        <v>0.1151829524728939</v>
       </c>
     </row>
     <row r="10">
@@ -664,7 +664,7 @@
         <v>0.04411321577245195</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.03923439669256807</v>
+        <v>0.03923439669256808</v>
       </c>
     </row>
     <row r="11">
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01340126040098555</v>
+        <v>0.01338642213652469</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01436417395159763</v>
+        <v>0.01035260877417497</v>
       </c>
     </row>
     <row r="12">
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1686103384442432</v>
+        <v>0.1569740759187369</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1261914309583039</v>
+        <v>0.1225924326677278</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1060047349240764</v>
+        <v>0.09802421018991099</v>
       </c>
     </row>
     <row r="13">
@@ -730,13 +730,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01165218871637372</v>
+        <v>0.0121544053881405</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00722514206882017</v>
+        <v>0.007302699699360484</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.014842965241184</v>
+        <v>0.01451297148424292</v>
       </c>
     </row>
     <row r="15">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1010989920203898</v>
+        <v>0.1026581400251665</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06044362449655901</v>
+        <v>0.06084440160548481</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07059940624931979</v>
+        <v>0.06523644428156569</v>
       </c>
     </row>
     <row r="16">
@@ -768,10 +768,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.06489420543872707</v>
+        <v>0.06489420543872705</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.04243374803635358</v>
+        <v>0.04243374803635359</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.05672711340870949</v>
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03571979438186147</v>
+        <v>0.0322442094608489</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01460279607790945</v>
+        <v>0.0144634733435684</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0329697832050411</v>
+        <v>0.03197228080815386</v>
       </c>
     </row>
     <row r="18">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1176869963042714</v>
+        <v>0.1129069824264266</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0900603490562366</v>
+        <v>0.08720081979332406</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08780293546735765</v>
+        <v>0.08985829916850914</v>
       </c>
     </row>
     <row r="19">
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.04253483566103104</v>
+        <v>0.04253483566103102</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.01254288322845352</v>
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.017428948810182</v>
+        <v>0.01743666181287161</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01683089324896795</v>
+        <v>0.01675597343344074</v>
       </c>
     </row>
     <row r="21">
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07927591275500728</v>
+        <v>0.07765005605119557</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07394135517252508</v>
+        <v>0.06346607587694567</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06275832955940877</v>
+        <v>0.06476305258959547</v>
       </c>
     </row>
     <row r="22">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.004545568182547743</v>
+        <v>0.004524447632852935</v>
       </c>
     </row>
     <row r="24">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04922001994957085</v>
+        <v>0.04951386427544026</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1650586947535357</v>
+        <v>0.161092155275955</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04671631468703818</v>
+        <v>0.04412274401378018</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02848530698147079</v>
+        <v>0.02769325028483904</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01520908834573048</v>
+        <v>0.01565730757290641</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02726200476101445</v>
+        <v>0.02685426984227813</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06038681308309774</v>
+        <v>0.0620748873319604</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04508420417013683</v>
+        <v>0.04424375359401278</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.050441035478057</v>
+        <v>0.04884612640171865</v>
       </c>
     </row>
     <row r="28">
@@ -1193,11 +1193,11 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6083</v>
+        <v>6721</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>6369</v>
+        <v>6888</v>
       </c>
     </row>
     <row r="12">
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1519</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="15">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8309</v>
+        <v>7736</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7130</v>
+        <v>6927</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11213</v>
+        <v>10369</v>
       </c>
     </row>
     <row r="16">
@@ -1318,13 +1318,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1321</v>
+        <v>1378</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3056</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="19">
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11464</v>
+        <v>11641</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5590</v>
+        <v>5627</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>14535</v>
+        <v>13430</v>
       </c>
     </row>
     <row r="20">
@@ -1390,13 +1390,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5897</v>
+        <v>5323</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1377</v>
+        <v>1364</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8553</v>
+        <v>8294</v>
       </c>
     </row>
     <row r="23">
@@ -1407,13 +1407,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>19428</v>
+        <v>18639</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8495</v>
+        <v>8225</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>22777</v>
+        <v>23310</v>
       </c>
     </row>
     <row r="24">
@@ -1462,13 +1462,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3706</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="27">
@@ -1479,13 +1479,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13604</v>
+        <v>13325</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3593</v>
+        <v>3084</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>13819</v>
+        <v>14261</v>
       </c>
     </row>
     <row r="28">
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="31">
@@ -1551,13 +1551,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>6333</v>
+        <v>6371</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>3241</v>
+        <v>3163</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>6928</v>
+        <v>6543</v>
       </c>
     </row>
     <row r="32">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>18807</v>
+        <v>18284</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>5565</v>
+        <v>5729</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>27974</v>
+        <v>27555</v>
       </c>
     </row>
     <row r="35">
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>39869</v>
+        <v>40983</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>16496</v>
+        <v>16188</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>51758</v>
+        <v>50121</v>
       </c>
     </row>
     <row r="36">
